--- a/Marzo/SoftwareScuole/UMLScuole.xlsx
+++ b/Marzo/SoftwareScuole/UMLScuole.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="24">
   <si>
     <t>ScuolaElementare</t>
   </si>
@@ -65,23 +65,44 @@
     <t>- numeroLaboratori: int</t>
   </si>
   <si>
-    <t>Scuola (abstract)</t>
-  </si>
-  <si>
-    <t>ScuolaSuperiore (abstract)</t>
-  </si>
-  <si>
-    <t>+ calcoloContributo(): int</t>
-  </si>
-  <si>
     <t>+ toString(): String</t>
+  </si>
+  <si>
+    <t>- contributoClasse: double</t>
+  </si>
+  <si>
+    <t>- contributoLaboratorio: double</t>
+  </si>
+  <si>
+    <t>- contributoSedeAggiuntiva: double</t>
+  </si>
+  <si>
+    <t>+ calcoloContributo(): double</t>
+  </si>
+  <si>
+    <t>125 * numeroStudenti + 9000 * numeroSediAggiuntive</t>
+  </si>
+  <si>
+    <t>150 * numeroStudenti + 1100 * numeroLaboratori + 9000 * numeroSediAggiuntive</t>
+  </si>
+  <si>
+    <t>3500 * numeroClassi + 6000 * numeroLaboratori</t>
+  </si>
+  <si>
+    <t>2400 * numeroClassi + 3000 * numeroLaboratori + contributoRegionale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;&lt;abstract&gt;&gt; Scuola </t>
+  </si>
+  <si>
+    <t>&lt;&lt;abstract&gt;&gt; ScuolaSuperiore</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -117,6 +138,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -219,22 +246,29 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -254,6 +288,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -271,36 +308,27 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -308,16 +336,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -885,227 +907,276 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="E7:O36"/>
+  <dimension ref="A7:O36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="7" spans="5:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E8" s="6" t="s">
+    <row r="7" spans="5:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="5:14" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="E8" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="24"/>
+      <c r="G8" s="25"/>
+      <c r="J8" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="K8" s="10"/>
+      <c r="L8" s="11"/>
+      <c r="N8" s="32" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="5:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E9" s="26"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="28"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="14"/>
+    </row>
+    <row r="10" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E10" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" s="2"/>
+      <c r="G10" s="3"/>
+      <c r="J10" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="K10" s="29"/>
+      <c r="L10" s="30"/>
+    </row>
+    <row r="11" spans="5:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E11" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" s="4"/>
+      <c r="G11" s="5"/>
+      <c r="J11" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="1"/>
-      <c r="G8" s="2"/>
-      <c r="J8" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="K8" s="7"/>
-      <c r="L8" s="8"/>
-    </row>
-    <row r="9" spans="5:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E9" s="3"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="5"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="11"/>
-    </row>
-    <row r="10" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E10" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="F10" s="19"/>
-      <c r="G10" s="20"/>
-      <c r="J10" s="27"/>
-      <c r="K10" s="28"/>
-      <c r="L10" s="29"/>
-    </row>
-    <row r="11" spans="5:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E11" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="F11" s="22"/>
-      <c r="G11" s="23"/>
-      <c r="J11" s="30"/>
-      <c r="K11" s="25"/>
-      <c r="L11" s="26"/>
-    </row>
-    <row r="12" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E12" s="21" t="s">
+      <c r="K11" s="7"/>
+      <c r="L11" s="8"/>
+    </row>
+    <row r="12" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E12" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="F12" s="22"/>
-      <c r="G12" s="23"/>
-    </row>
-    <row r="13" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E13" s="21" t="s">
+      <c r="F12" s="4"/>
+      <c r="G12" s="5"/>
+    </row>
+    <row r="13" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E13" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="F13" s="22"/>
-      <c r="G13" s="23"/>
-    </row>
-    <row r="14" spans="5:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E14" s="21" t="s">
+      <c r="F13" s="4"/>
+      <c r="G13" s="5"/>
+    </row>
+    <row r="14" spans="5:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E14" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="F14" s="22"/>
-      <c r="G14" s="23"/>
-    </row>
-    <row r="15" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E15" s="21" t="s">
+      <c r="F14" s="4"/>
+      <c r="G14" s="5"/>
+    </row>
+    <row r="15" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E15" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="F15" s="22"/>
-      <c r="G15" s="23"/>
-      <c r="J15" s="6" t="s">
+      <c r="F15" s="4"/>
+      <c r="G15" s="5"/>
+      <c r="J15" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="K15" s="7"/>
-      <c r="L15" s="8"/>
-    </row>
-    <row r="16" spans="5:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E16" s="21" t="s">
+      <c r="K15" s="10"/>
+      <c r="L15" s="11"/>
+    </row>
+    <row r="16" spans="5:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E16" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="22"/>
-      <c r="G16" s="23"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="11"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="5"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="14"/>
+      <c r="N16" s="32" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="17" spans="5:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E17" s="21" t="s">
+      <c r="E17" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F17" s="22"/>
-      <c r="G17" s="23"/>
-      <c r="J17" s="31"/>
-      <c r="K17" s="19"/>
-      <c r="L17" s="20"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="5"/>
+      <c r="J17" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="K17" s="2"/>
+      <c r="L17" s="3"/>
     </row>
     <row r="18" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E18" s="18" t="s">
+      <c r="E18" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" s="2"/>
+      <c r="G18" s="3"/>
+      <c r="J18" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="K18" s="4"/>
+      <c r="L18" s="5"/>
+    </row>
+    <row r="19" spans="5:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E19" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="7"/>
+      <c r="G19" s="8"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="8"/>
+    </row>
+    <row r="22" spans="5:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O22" s="1"/>
+    </row>
+    <row r="23" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E23" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F23" s="17"/>
+      <c r="G23" s="18"/>
+      <c r="J23" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="K23" s="10"/>
+      <c r="L23" s="11"/>
+    </row>
+    <row r="24" spans="5:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E24" s="19"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="21"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="13"/>
+      <c r="L24" s="14"/>
+    </row>
+    <row r="25" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E25" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="F25" s="2"/>
+      <c r="G25" s="3"/>
+      <c r="J25" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="K25" s="2"/>
+      <c r="L25" s="3"/>
+    </row>
+    <row r="26" spans="5:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E26" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="F18" s="19"/>
-      <c r="G18" s="20"/>
-      <c r="J18" s="32"/>
-      <c r="K18" s="22"/>
-      <c r="L18" s="23"/>
-    </row>
-    <row r="19" spans="5:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E19" s="24" t="s">
+      <c r="F26" s="4"/>
+      <c r="G26" s="5"/>
+      <c r="J26" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="K26" s="7"/>
+      <c r="L26" s="8"/>
+    </row>
+    <row r="27" spans="5:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E27" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="F19" s="25"/>
-      <c r="G19" s="26"/>
-      <c r="J19" s="30"/>
-      <c r="K19" s="25"/>
-      <c r="L19" s="26"/>
-    </row>
-    <row r="22" spans="5:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="O22" s="33"/>
-    </row>
-    <row r="23" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E23" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="F23" s="13"/>
-      <c r="G23" s="14"/>
-      <c r="J23" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="K23" s="7"/>
-      <c r="L23" s="8"/>
-    </row>
-    <row r="24" spans="5:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E24" s="15"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="17"/>
-      <c r="J24" s="9"/>
-      <c r="K24" s="10"/>
-      <c r="L24" s="11"/>
-    </row>
-    <row r="25" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E25" s="31"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="20"/>
-      <c r="J25" s="31"/>
-      <c r="K25" s="19"/>
-      <c r="L25" s="20"/>
-    </row>
-    <row r="26" spans="5:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E26" s="32"/>
-      <c r="F26" s="22"/>
-      <c r="G26" s="23"/>
-      <c r="J26" s="30"/>
-      <c r="K26" s="25"/>
-      <c r="L26" s="26"/>
-    </row>
-    <row r="27" spans="5:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E27" s="30"/>
-      <c r="F27" s="25"/>
-      <c r="G27" s="26"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="8"/>
     </row>
     <row r="28" spans="5:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="29" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="J29" s="6" t="s">
+      <c r="J29" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="K29" s="7"/>
-      <c r="L29" s="8"/>
-    </row>
-    <row r="30" spans="5:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J30" s="9"/>
-      <c r="K30" s="10"/>
-      <c r="L30" s="11"/>
+      <c r="K29" s="10"/>
+      <c r="L29" s="11"/>
+    </row>
+    <row r="30" spans="5:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J30" s="12"/>
+      <c r="K30" s="13"/>
+      <c r="L30" s="14"/>
+      <c r="N30" s="32" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="31" spans="5:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J31" s="31"/>
-      <c r="K31" s="19"/>
-      <c r="L31" s="20"/>
+      <c r="J31" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="K31" s="2"/>
+      <c r="L31" s="3"/>
     </row>
     <row r="32" spans="5:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E32" s="6" t="s">
+      <c r="E32" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F32" s="7"/>
-      <c r="G32" s="8"/>
-      <c r="J32" s="30"/>
-      <c r="K32" s="25"/>
-      <c r="L32" s="26"/>
-    </row>
-    <row r="33" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E33" s="9"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="11"/>
-    </row>
-    <row r="34" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E34" s="31"/>
-      <c r="F34" s="19"/>
-      <c r="G34" s="20"/>
-    </row>
-    <row r="35" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E35" s="32"/>
-      <c r="F35" s="22"/>
-      <c r="G35" s="23"/>
-    </row>
-    <row r="36" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E36" s="30"/>
-      <c r="F36" s="25"/>
-      <c r="G36" s="26"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="11"/>
+      <c r="J32" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="K32" s="7"/>
+      <c r="L32" s="8"/>
+    </row>
+    <row r="33" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33" s="12"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="14"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E34" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="F34" s="2"/>
+      <c r="G34" s="3"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E35" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="F35" s="4"/>
+      <c r="G35" s="5"/>
+    </row>
+    <row r="36" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E36" s="6"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="E34:G34"/>
-    <mergeCell ref="E35:G35"/>
-    <mergeCell ref="E36:G36"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="E32:G33"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="E8:G9"/>
+    <mergeCell ref="J8:L9"/>
+    <mergeCell ref="J15:L16"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="E17:G17"/>
     <mergeCell ref="J25:L25"/>
     <mergeCell ref="E19:G19"/>
     <mergeCell ref="J26:L26"/>
@@ -1117,22 +1188,11 @@
     <mergeCell ref="J29:L30"/>
     <mergeCell ref="E25:G25"/>
     <mergeCell ref="E26:G26"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="E8:G9"/>
-    <mergeCell ref="J8:L9"/>
-    <mergeCell ref="J15:L16"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="E34:G34"/>
+    <mergeCell ref="E35:G35"/>
+    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="E32:G33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
